--- a/published-data/fonds-solidarite/fds-2021-05-22/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-05-22/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>84851</v>
+        <v>85183</v>
       </c>
       <c r="D2">
-        <v>18872</v>
+        <v>18875</v>
       </c>
       <c r="E2">
-        <v>259838682</v>
+        <v>261705981</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>206759</v>
+        <v>207576</v>
       </c>
       <c r="D3">
-        <v>47150</v>
+        <v>47156</v>
       </c>
       <c r="E3">
-        <v>803954365</v>
+        <v>809966481</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>82731</v>
+        <v>83133</v>
       </c>
       <c r="D4">
-        <v>18532</v>
+        <v>18535</v>
       </c>
       <c r="E4">
-        <v>461381376</v>
+        <v>465498847</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>30271</v>
+        <v>30468</v>
       </c>
       <c r="D5">
-        <v>6507</v>
+        <v>6508</v>
       </c>
       <c r="E5">
-        <v>248797632</v>
+        <v>251625401</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>14645</v>
+        <v>14771</v>
       </c>
       <c r="D6">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="E6">
-        <v>226592400</v>
+        <v>229311729</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -769,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4406</v>
+        <v>4450</v>
       </c>
       <c r="D7">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E7">
-        <v>160980822</v>
+        <v>162570417</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -798,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="D8">
         <v>167</v>
       </c>
       <c r="E8">
-        <v>43510554</v>
+        <v>43906918</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -885,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>11</v>
       </c>
       <c r="E11">
-        <v>3907778</v>
+        <v>4150234</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -972,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>91486</v>
+        <v>91860</v>
       </c>
       <c r="D14">
-        <v>20737</v>
+        <v>20743</v>
       </c>
       <c r="E14">
-        <v>191117626</v>
+        <v>192481795</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1001,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>20982</v>
+        <v>21067</v>
       </c>
       <c r="D15">
-        <v>4797</v>
+        <v>4798</v>
       </c>
       <c r="E15">
-        <v>63838082</v>
+        <v>64337231</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>57493</v>
+        <v>57762</v>
       </c>
       <c r="D16">
-        <v>13509</v>
+        <v>13510</v>
       </c>
       <c r="E16">
-        <v>221605805</v>
+        <v>223528400</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1059,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>20879</v>
+        <v>20989</v>
       </c>
       <c r="D17">
-        <v>4924</v>
+        <v>4927</v>
       </c>
       <c r="E17">
-        <v>110103232</v>
+        <v>111227531</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1088,13 +1088,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>6830</v>
+        <v>6874</v>
       </c>
       <c r="D18">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="E18">
-        <v>49279506</v>
+        <v>49803956</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1117,13 +1117,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>3096</v>
+        <v>3118</v>
       </c>
       <c r="D19">
         <v>708</v>
       </c>
       <c r="E19">
-        <v>42210255</v>
+        <v>42681040</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1146,13 +1146,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="D20">
         <v>273</v>
       </c>
       <c r="E20">
-        <v>32377986</v>
+        <v>32625726</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>20146</v>
+        <v>20220</v>
       </c>
       <c r="D23">
         <v>5031</v>
       </c>
       <c r="E23">
-        <v>39267823</v>
+        <v>39531373</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1262,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>30355</v>
+        <v>30497</v>
       </c>
       <c r="D24">
         <v>6461</v>
       </c>
       <c r="E24">
-        <v>107752352</v>
+        <v>108612696</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1291,13 +1291,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>72302</v>
+        <v>72632</v>
       </c>
       <c r="D25">
         <v>16395</v>
       </c>
       <c r="E25">
-        <v>302207403</v>
+        <v>304835861</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1320,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>27647</v>
+        <v>27802</v>
       </c>
       <c r="D26">
-        <v>6410</v>
+        <v>6411</v>
       </c>
       <c r="E26">
-        <v>154634768</v>
+        <v>156216512</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1349,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>9290</v>
+        <v>9369</v>
       </c>
       <c r="D27">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="E27">
-        <v>71575635</v>
+        <v>72767901</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>4143</v>
+        <v>4182</v>
       </c>
       <c r="D28">
         <v>958</v>
       </c>
       <c r="E28">
-        <v>57220467</v>
+        <v>58027878</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1218</v>
+        <v>1238</v>
       </c>
       <c r="D29">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E29">
-        <v>44928783</v>
+        <v>45851242</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1436,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30">
         <v>32</v>
       </c>
       <c r="E30">
-        <v>6037323</v>
+        <v>6037324</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1552,13 +1552,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>21979</v>
+        <v>22051</v>
       </c>
       <c r="D34">
-        <v>5581</v>
+        <v>5583</v>
       </c>
       <c r="E34">
-        <v>43221688</v>
+        <v>43521606</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1581,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>16305</v>
+        <v>16361</v>
       </c>
       <c r="D35">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="E35">
-        <v>49276592</v>
+        <v>49592637</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1610,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>47953</v>
+        <v>48115</v>
       </c>
       <c r="D36">
-        <v>11622</v>
+        <v>11623</v>
       </c>
       <c r="E36">
-        <v>177174003</v>
+        <v>178389410</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1639,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>18803</v>
+        <v>18869</v>
       </c>
       <c r="D37">
         <v>4612</v>
       </c>
       <c r="E37">
-        <v>96578478</v>
+        <v>97265419</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>5723</v>
+        <v>5755</v>
       </c>
       <c r="D38">
         <v>1404</v>
       </c>
       <c r="E38">
-        <v>40111888</v>
+        <v>40548717</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1697,13 +1697,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>2548</v>
+        <v>2566</v>
       </c>
       <c r="D39">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E39">
-        <v>35640334</v>
+        <v>36012268</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D40">
         <v>194</v>
       </c>
       <c r="E40">
-        <v>21350278</v>
+        <v>21428042</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1755,13 +1755,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>17</v>
       </c>
       <c r="E41">
-        <v>3630544</v>
+        <v>3830007</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -1784,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>15749</v>
+        <v>15792</v>
       </c>
       <c r="D42">
         <v>3948</v>
       </c>
       <c r="E42">
-        <v>30140177</v>
+        <v>30264003</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1813,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>8901</v>
+        <v>8925</v>
       </c>
       <c r="D43">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="E43">
-        <v>34379298</v>
+        <v>34547365</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>19829</v>
+        <v>19889</v>
       </c>
       <c r="D44">
         <v>3827</v>
       </c>
       <c r="E44">
-        <v>80389004</v>
+        <v>80843223</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>9141</v>
+        <v>9167</v>
       </c>
       <c r="D45">
         <v>1762</v>
       </c>
       <c r="E45">
-        <v>52562530</v>
+        <v>52840068</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -1900,13 +1900,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>2991</v>
+        <v>3009</v>
       </c>
       <c r="D46">
         <v>599</v>
       </c>
       <c r="E46">
-        <v>24501665</v>
+        <v>24690958</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -1929,13 +1929,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>1282</v>
+        <v>1294</v>
       </c>
       <c r="D47">
         <v>276</v>
       </c>
       <c r="E47">
-        <v>20827455</v>
+        <v>21086341</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -1958,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D48">
         <v>81</v>
       </c>
       <c r="E48">
-        <v>12396823</v>
+        <v>12472691</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>5461</v>
+        <v>5471</v>
       </c>
       <c r="D50">
         <v>1238</v>
       </c>
       <c r="E50">
-        <v>10175432</v>
+        <v>10208981</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -2045,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>38898</v>
+        <v>39072</v>
       </c>
       <c r="D51">
-        <v>9356</v>
+        <v>9357</v>
       </c>
       <c r="E51">
-        <v>120422532</v>
+        <v>121489062</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2074,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>116553</v>
+        <v>117117</v>
       </c>
       <c r="D52">
-        <v>28543</v>
+        <v>28550</v>
       </c>
       <c r="E52">
-        <v>448307568</v>
+        <v>452492273</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -2103,13 +2103,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>48299</v>
+        <v>48565</v>
       </c>
       <c r="D53">
-        <v>11554</v>
+        <v>11555</v>
       </c>
       <c r="E53">
-        <v>255068585</v>
+        <v>257629110</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2132,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>17816</v>
+        <v>17960</v>
       </c>
       <c r="D54">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="E54">
-        <v>128853829</v>
+        <v>130722779</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -2161,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>8290</v>
+        <v>8359</v>
       </c>
       <c r="D55">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="E55">
-        <v>113906553</v>
+        <v>115318408</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2190,13 +2190,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>2334</v>
+        <v>2360</v>
       </c>
       <c r="D56">
         <v>575</v>
       </c>
       <c r="E56">
-        <v>79157774</v>
+        <v>80217752</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2219,13 +2219,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D57">
         <v>65</v>
       </c>
       <c r="E57">
-        <v>15205941</v>
+        <v>15211503</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -2248,13 +2248,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>1176157</v>
+        <v>1245477</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -2306,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>42557</v>
+        <v>42752</v>
       </c>
       <c r="D60">
-        <v>11334</v>
+        <v>11339</v>
       </c>
       <c r="E60">
-        <v>103759366</v>
+        <v>104533342</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2335,13 +2335,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>3291</v>
+        <v>3302</v>
       </c>
       <c r="D61">
         <v>779</v>
       </c>
       <c r="E61">
-        <v>6541954</v>
+        <v>6576985</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2364,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>10784</v>
+        <v>10804</v>
       </c>
       <c r="D62">
         <v>2760</v>
       </c>
       <c r="E62">
-        <v>23336430</v>
+        <v>23407500</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2393,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>3627</v>
+        <v>3640</v>
       </c>
       <c r="D63">
         <v>1015</v>
       </c>
       <c r="E63">
-        <v>9834107</v>
+        <v>9926151</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2422,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D64">
         <v>377</v>
       </c>
       <c r="E64">
-        <v>4919442</v>
+        <v>4944743</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -2480,13 +2480,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66">
         <v>21</v>
       </c>
       <c r="E66">
-        <v>2284784</v>
+        <v>2323032</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -2567,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>12165</v>
+        <v>12194</v>
       </c>
       <c r="D69">
         <v>2617</v>
       </c>
       <c r="E69">
-        <v>19296079</v>
+        <v>19342679</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -2596,13 +2596,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="D70">
         <v>370</v>
       </c>
       <c r="E70">
-        <v>4924113</v>
+        <v>4927113</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -2625,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>5076</v>
+        <v>5087</v>
       </c>
       <c r="D71">
         <v>945</v>
       </c>
       <c r="E71">
-        <v>11964232</v>
+        <v>11989552</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -2654,13 +2654,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="D72">
         <v>405</v>
       </c>
       <c r="E72">
-        <v>5168715</v>
+        <v>5188715</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>3448</v>
+        <v>3450</v>
       </c>
       <c r="D76">
         <v>552</v>
       </c>
       <c r="E76">
-        <v>6682598</v>
+        <v>6685498</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -2799,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>32719</v>
+        <v>32864</v>
       </c>
       <c r="D77">
-        <v>7416</v>
+        <v>7419</v>
       </c>
       <c r="E77">
-        <v>90601100</v>
+        <v>91406454</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2828,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>97467</v>
+        <v>97809</v>
       </c>
       <c r="D78">
-        <v>22620</v>
+        <v>22621</v>
       </c>
       <c r="E78">
-        <v>350319775</v>
+        <v>352637121</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2857,13 +2857,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>38901</v>
+        <v>39084</v>
       </c>
       <c r="D79">
-        <v>8984</v>
+        <v>8987</v>
       </c>
       <c r="E79">
-        <v>200065397</v>
+        <v>201813262</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2886,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>13470</v>
+        <v>13540</v>
       </c>
       <c r="D80">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="E80">
-        <v>89941109</v>
+        <v>91035984</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2915,13 +2915,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>5971</v>
+        <v>6018</v>
       </c>
       <c r="D81">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="E81">
-        <v>77928514</v>
+        <v>78822702</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2944,13 +2944,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2264</v>
+        <v>2286</v>
       </c>
       <c r="D82">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E82">
-        <v>71823929</v>
+        <v>72509730</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2973,13 +2973,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D83">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E83">
-        <v>11185257</v>
+        <v>11371854</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -3118,13 +3118,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>29448</v>
+        <v>29530</v>
       </c>
       <c r="D88">
         <v>7177</v>
       </c>
       <c r="E88">
-        <v>55687777</v>
+        <v>55958041</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -3147,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>122354</v>
+        <v>122719</v>
       </c>
       <c r="D89">
-        <v>24555</v>
+        <v>24562</v>
       </c>
       <c r="E89">
-        <v>355042052</v>
+        <v>357023825</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -3176,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>329880</v>
+        <v>330891</v>
       </c>
       <c r="D90">
-        <v>70322</v>
+        <v>70340</v>
       </c>
       <c r="E90">
-        <v>1142818127</v>
+        <v>1150318328</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -3205,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>162321</v>
+        <v>162956</v>
       </c>
       <c r="D91">
-        <v>33893</v>
+        <v>33898</v>
       </c>
       <c r="E91">
-        <v>863278028</v>
+        <v>870101047</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -3234,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>68393</v>
+        <v>68742</v>
       </c>
       <c r="D92">
-        <v>13558</v>
+        <v>13561</v>
       </c>
       <c r="E92">
-        <v>538600150</v>
+        <v>543060717</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
@@ -3263,13 +3263,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>33472</v>
+        <v>33666</v>
       </c>
       <c r="D93">
-        <v>6796</v>
+        <v>6804</v>
       </c>
       <c r="E93">
-        <v>491191172</v>
+        <v>496652281</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -3292,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>9762</v>
+        <v>9836</v>
       </c>
       <c r="D94">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="E94">
-        <v>361083918</v>
+        <v>364972484</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
@@ -3321,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="D95">
         <v>313</v>
       </c>
       <c r="E95">
-        <v>88026240</v>
+        <v>88490243</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -3350,13 +3350,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D96">
         <v>138</v>
       </c>
       <c r="E96">
-        <v>48596688</v>
+        <v>48996688</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -3408,13 +3408,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D98">
         <v>61</v>
       </c>
       <c r="E98">
-        <v>19663602</v>
+        <v>19863602</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -3437,13 +3437,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D99">
         <v>23</v>
       </c>
       <c r="E99">
-        <v>9165471</v>
+        <v>9365471</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -3524,13 +3524,13 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>111785</v>
+        <v>112048</v>
       </c>
       <c r="D102">
-        <v>22626</v>
+        <v>22630</v>
       </c>
       <c r="E102">
-        <v>214861004</v>
+        <v>215631221</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
@@ -3553,13 +3553,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>6851</v>
+        <v>6869</v>
       </c>
       <c r="D103">
         <v>1895</v>
       </c>
       <c r="E103">
-        <v>12867011</v>
+        <v>12959054</v>
       </c>
       <c r="F103" t="s">
         <v>21</v>
@@ -3582,13 +3582,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>15661</v>
+        <v>15680</v>
       </c>
       <c r="D104">
         <v>4960</v>
       </c>
       <c r="E104">
-        <v>31255306</v>
+        <v>31374569</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -3611,13 +3611,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>5042</v>
+        <v>5058</v>
       </c>
       <c r="D105">
         <v>1859</v>
       </c>
       <c r="E105">
-        <v>12837286</v>
+        <v>12937786</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -3640,13 +3640,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>1915</v>
+        <v>1924</v>
       </c>
       <c r="D106">
         <v>717</v>
       </c>
       <c r="E106">
-        <v>7438609</v>
+        <v>7599013</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
@@ -3669,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D107">
         <v>202</v>
       </c>
       <c r="E107">
-        <v>6345075</v>
+        <v>6393144</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
@@ -3727,13 +3727,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D109">
         <v>7</v>
       </c>
       <c r="E109">
-        <v>332216</v>
+        <v>394238</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
@@ -3756,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>7586</v>
+        <v>7600</v>
       </c>
       <c r="D110">
         <v>2064</v>
       </c>
       <c r="E110">
-        <v>10931450</v>
+        <v>10953113</v>
       </c>
       <c r="F110" t="s">
         <v>21</v>
@@ -3785,13 +3785,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="D111">
         <v>688</v>
       </c>
       <c r="E111">
-        <v>6538159</v>
+        <v>6546257</v>
       </c>
       <c r="F111" t="s">
         <v>22</v>
@@ -3814,13 +3814,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>8810</v>
+        <v>8835</v>
       </c>
       <c r="D112">
         <v>2222</v>
       </c>
       <c r="E112">
-        <v>22294736</v>
+        <v>22449823</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -3843,13 +3843,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>3150</v>
+        <v>3158</v>
       </c>
       <c r="D113">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E113">
-        <v>10213921</v>
+        <v>10291540</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -3872,13 +3872,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="D114">
         <v>368</v>
       </c>
       <c r="E114">
-        <v>4843431</v>
+        <v>4894987</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -3901,13 +3901,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D115">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E115">
-        <v>3433735</v>
+        <v>3601842</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -3988,13 +3988,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>6198</v>
+        <v>6212</v>
       </c>
       <c r="D118">
         <v>1410</v>
       </c>
       <c r="E118">
-        <v>9577883</v>
+        <v>9608742</v>
       </c>
       <c r="F118" t="s">
         <v>22</v>
@@ -4046,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D120">
         <v>137</v>
       </c>
       <c r="E120">
-        <v>2436974</v>
+        <v>2438474</v>
       </c>
       <c r="F120" t="s">
         <v>23</v>
@@ -4191,13 +4191,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>23897</v>
+        <v>23991</v>
       </c>
       <c r="D125">
         <v>5207</v>
       </c>
       <c r="E125">
-        <v>76216891</v>
+        <v>76931603</v>
       </c>
       <c r="F125" t="s">
         <v>24</v>
@@ -4220,13 +4220,13 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <v>63834</v>
+        <v>64098</v>
       </c>
       <c r="D126">
         <v>15048</v>
       </c>
       <c r="E126">
-        <v>246111086</v>
+        <v>248064292</v>
       </c>
       <c r="F126" t="s">
         <v>24</v>
@@ -4249,13 +4249,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>24772</v>
+        <v>24908</v>
       </c>
       <c r="D127">
-        <v>5753</v>
+        <v>5756</v>
       </c>
       <c r="E127">
-        <v>131576629</v>
+        <v>132979001</v>
       </c>
       <c r="F127" t="s">
         <v>24</v>
@@ -4278,13 +4278,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>8688</v>
+        <v>8743</v>
       </c>
       <c r="D128">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E128">
-        <v>63619152</v>
+        <v>64397626</v>
       </c>
       <c r="F128" t="s">
         <v>24</v>
@@ -4307,13 +4307,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>3772</v>
+        <v>3801</v>
       </c>
       <c r="D129">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E129">
-        <v>52305062</v>
+        <v>52995620</v>
       </c>
       <c r="F129" t="s">
         <v>24</v>
@@ -4336,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>1235</v>
+        <v>1245</v>
       </c>
       <c r="D130">
         <v>307</v>
       </c>
       <c r="E130">
-        <v>39088781</v>
+        <v>39389175</v>
       </c>
       <c r="F130" t="s">
         <v>24</v>
@@ -4365,13 +4365,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D131">
         <v>36</v>
       </c>
       <c r="E131">
-        <v>6211562</v>
+        <v>6323897</v>
       </c>
       <c r="F131" t="s">
         <v>24</v>
@@ -4394,13 +4394,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D132">
         <v>9</v>
       </c>
       <c r="E132">
-        <v>3116471</v>
+        <v>3116472</v>
       </c>
       <c r="F132" t="s">
         <v>24</v>
@@ -4481,13 +4481,13 @@
         <v>10</v>
       </c>
       <c r="C135">
-        <v>18444</v>
+        <v>18503</v>
       </c>
       <c r="D135">
         <v>4616</v>
       </c>
       <c r="E135">
-        <v>35388823</v>
+        <v>35553875</v>
       </c>
       <c r="F135" t="s">
         <v>24</v>
@@ -4510,13 +4510,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>68101</v>
+        <v>68362</v>
       </c>
       <c r="D136">
-        <v>14864</v>
+        <v>14867</v>
       </c>
       <c r="E136">
-        <v>225069195</v>
+        <v>226566509</v>
       </c>
       <c r="F136" t="s">
         <v>25</v>
@@ -4539,13 +4539,13 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>141888</v>
+        <v>142391</v>
       </c>
       <c r="D137">
-        <v>34715</v>
+        <v>34721</v>
       </c>
       <c r="E137">
-        <v>536446382</v>
+        <v>540062566</v>
       </c>
       <c r="F137" t="s">
         <v>25</v>
@@ -4568,13 +4568,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>52594</v>
+        <v>52817</v>
       </c>
       <c r="D138">
-        <v>12856</v>
+        <v>12857</v>
       </c>
       <c r="E138">
-        <v>276943487</v>
+        <v>279044899</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
@@ -4597,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>18929</v>
+        <v>19030</v>
       </c>
       <c r="D139">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E139">
-        <v>137928395</v>
+        <v>139405690</v>
       </c>
       <c r="F139" t="s">
         <v>25</v>
@@ -4626,13 +4626,13 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>8421</v>
+        <v>8474</v>
       </c>
       <c r="D140">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="E140">
-        <v>117461170</v>
+        <v>118640979</v>
       </c>
       <c r="F140" t="s">
         <v>25</v>
@@ -4655,13 +4655,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D141">
         <v>708</v>
       </c>
       <c r="E141">
-        <v>96229500</v>
+        <v>97024733</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -4684,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D142">
         <v>78</v>
       </c>
       <c r="E142">
-        <v>13817742</v>
+        <v>14005105</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -4800,13 +4800,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>48882</v>
+        <v>49034</v>
       </c>
       <c r="D146">
-        <v>12996</v>
+        <v>12999</v>
       </c>
       <c r="E146">
-        <v>93995311</v>
+        <v>94453278</v>
       </c>
       <c r="F146" t="s">
         <v>25</v>
@@ -4829,13 +4829,13 @@
         <v>10</v>
       </c>
       <c r="C147">
-        <v>84216</v>
+        <v>84525</v>
       </c>
       <c r="D147">
         <v>17195</v>
       </c>
       <c r="E147">
-        <v>274393069</v>
+        <v>276274726</v>
       </c>
       <c r="F147" t="s">
         <v>26</v>
@@ -4858,13 +4858,13 @@
         <v>10</v>
       </c>
       <c r="C148">
-        <v>170228</v>
+        <v>170889</v>
       </c>
       <c r="D148">
-        <v>38949</v>
+        <v>38960</v>
       </c>
       <c r="E148">
-        <v>624163079</v>
+        <v>628827663</v>
       </c>
       <c r="F148" t="s">
         <v>26</v>
@@ -4887,13 +4887,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>59576</v>
+        <v>59830</v>
       </c>
       <c r="D149">
-        <v>13742</v>
+        <v>13744</v>
       </c>
       <c r="E149">
-        <v>312512780</v>
+        <v>315072770</v>
       </c>
       <c r="F149" t="s">
         <v>26</v>
@@ -4916,13 +4916,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>19888</v>
+        <v>20010</v>
       </c>
       <c r="D150">
         <v>4569</v>
       </c>
       <c r="E150">
-        <v>142067104</v>
+        <v>143533977</v>
       </c>
       <c r="F150" t="s">
         <v>26</v>
@@ -4945,13 +4945,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>8579</v>
+        <v>8648</v>
       </c>
       <c r="D151">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E151">
-        <v>114717901</v>
+        <v>116263252</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -4974,13 +4974,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>2591</v>
+        <v>2610</v>
       </c>
       <c r="D152">
         <v>660</v>
       </c>
       <c r="E152">
-        <v>88909415</v>
+        <v>89832990</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -5003,13 +5003,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D153">
         <v>87</v>
       </c>
       <c r="E153">
-        <v>17996064</v>
+        <v>18167268</v>
       </c>
       <c r="F153" t="s">
         <v>26</v>
@@ -5119,13 +5119,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>61440</v>
+        <v>61612</v>
       </c>
       <c r="D157">
-        <v>15346</v>
+        <v>15349</v>
       </c>
       <c r="E157">
-        <v>110407696</v>
+        <v>110875819</v>
       </c>
       <c r="F157" t="s">
         <v>26</v>
@@ -5148,13 +5148,13 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>28979</v>
+        <v>29073</v>
       </c>
       <c r="D158">
-        <v>6457</v>
+        <v>6458</v>
       </c>
       <c r="E158">
-        <v>94076215</v>
+        <v>94693967</v>
       </c>
       <c r="F158" t="s">
         <v>27</v>
@@ -5177,13 +5177,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>70253</v>
+        <v>70529</v>
       </c>
       <c r="D159">
-        <v>17000</v>
+        <v>17003</v>
       </c>
       <c r="E159">
-        <v>278970808</v>
+        <v>281215152</v>
       </c>
       <c r="F159" t="s">
         <v>27</v>
@@ -5206,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>28984</v>
+        <v>29128</v>
       </c>
       <c r="D160">
-        <v>7013</v>
+        <v>7014</v>
       </c>
       <c r="E160">
-        <v>156815820</v>
+        <v>158292769</v>
       </c>
       <c r="F160" t="s">
         <v>27</v>
@@ -5235,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>9409</v>
+        <v>9482</v>
       </c>
       <c r="D161">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="E161">
-        <v>70431118</v>
+        <v>71599736</v>
       </c>
       <c r="F161" t="s">
         <v>27</v>
@@ -5264,13 +5264,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>4292</v>
+        <v>4336</v>
       </c>
       <c r="D162">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E162">
-        <v>61439456</v>
+        <v>62387362</v>
       </c>
       <c r="F162" t="s">
         <v>27</v>
@@ -5293,13 +5293,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>1482</v>
+        <v>1488</v>
       </c>
       <c r="D163">
         <v>384</v>
       </c>
       <c r="E163">
-        <v>51671874</v>
+        <v>51834013</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
@@ -5322,13 +5322,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D164">
         <v>37</v>
       </c>
       <c r="E164">
-        <v>6313602</v>
+        <v>6313604</v>
       </c>
       <c r="F164" t="s">
         <v>27</v>
@@ -5380,13 +5380,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>19793</v>
+        <v>19862</v>
       </c>
       <c r="D166">
-        <v>5196</v>
+        <v>5197</v>
       </c>
       <c r="E166">
-        <v>37504253</v>
+        <v>37748696</v>
       </c>
       <c r="F166" t="s">
         <v>27</v>
@@ -5409,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>82370</v>
+        <v>82668</v>
       </c>
       <c r="D167">
-        <v>16735</v>
+        <v>16736</v>
       </c>
       <c r="E167">
-        <v>265490438</v>
+        <v>267153109</v>
       </c>
       <c r="F167" t="s">
         <v>28</v>
@@ -5438,13 +5438,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>190179</v>
+        <v>190844</v>
       </c>
       <c r="D168">
-        <v>40686</v>
+        <v>40691</v>
       </c>
       <c r="E168">
-        <v>713099781</v>
+        <v>717670332</v>
       </c>
       <c r="F168" t="s">
         <v>28</v>
@@ -5467,13 +5467,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>66138</v>
+        <v>66416</v>
       </c>
       <c r="D169">
-        <v>13934</v>
+        <v>13939</v>
       </c>
       <c r="E169">
-        <v>363932900</v>
+        <v>366635848</v>
       </c>
       <c r="F169" t="s">
         <v>28</v>
@@ -5496,13 +5496,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>22648</v>
+        <v>22786</v>
       </c>
       <c r="D170">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="E170">
-        <v>180721774</v>
+        <v>182707879</v>
       </c>
       <c r="F170" t="s">
         <v>28</v>
@@ -5525,13 +5525,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>10719</v>
+        <v>10786</v>
       </c>
       <c r="D171">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="E171">
-        <v>158046187</v>
+        <v>159447777</v>
       </c>
       <c r="F171" t="s">
         <v>28</v>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>3267</v>
+        <v>3287</v>
       </c>
       <c r="D172">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E172">
-        <v>121838265</v>
+        <v>122560979</v>
       </c>
       <c r="F172" t="s">
         <v>28</v>
@@ -5583,13 +5583,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D173">
         <v>118</v>
       </c>
       <c r="E173">
-        <v>26790435</v>
+        <v>26828937</v>
       </c>
       <c r="F173" t="s">
         <v>28</v>
@@ -5641,13 +5641,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D175">
         <v>7</v>
       </c>
       <c r="E175">
-        <v>2062379</v>
+        <v>2062380</v>
       </c>
       <c r="F175" t="s">
         <v>28</v>
@@ -5728,13 +5728,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>58986</v>
+        <v>59177</v>
       </c>
       <c r="D178">
-        <v>13603</v>
+        <v>13606</v>
       </c>
       <c r="E178">
-        <v>110641447</v>
+        <v>111204087</v>
       </c>
       <c r="F178" t="s">
         <v>28</v>
